--- a/ig/sd-correction-conceptmaps/StructureDefinition-eclaire-contact-type.xlsx
+++ b/ig/sd-correction-conceptmaps/StructureDefinition-eclaire-contact-type.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-01T14:48:43+00:00</t>
+    <t>2023-09-01T15:11:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/sd-correction-conceptmaps/StructureDefinition-eclaire-contact-type.xlsx
+++ b/ig/sd-correction-conceptmaps/StructureDefinition-eclaire-contact-type.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-01T15:11:28+00:00</t>
+    <t>2023-09-01T16:11:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/sd-correction-conceptmaps/StructureDefinition-eclaire-contact-type.xlsx
+++ b/ig/sd-correction-conceptmaps/StructureDefinition-eclaire-contact-type.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-01T16:11:30+00:00</t>
+    <t>2023-09-01T16:27:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/sd-correction-conceptmaps/StructureDefinition-eclaire-contact-type.xlsx
+++ b/ig/sd-correction-conceptmaps/StructureDefinition-eclaire-contact-type.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-01T16:27:26+00:00</t>
+    <t>2023-09-01T17:43:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/sd-correction-conceptmaps/StructureDefinition-eclaire-contact-type.xlsx
+++ b/ig/sd-correction-conceptmaps/StructureDefinition-eclaire-contact-type.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-01T17:43:23+00:00</t>
+    <t>2023-09-01T17:52:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/sd-correction-conceptmaps/StructureDefinition-eclaire-contact-type.xlsx
+++ b/ig/sd-correction-conceptmaps/StructureDefinition-eclaire-contact-type.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-01T17:52:23+00:00</t>
+    <t>2023-09-01T18:07:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/sd-correction-conceptmaps/StructureDefinition-eclaire-contact-type.xlsx
+++ b/ig/sd-correction-conceptmaps/StructureDefinition-eclaire-contact-type.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-01T18:07:06+00:00</t>
+    <t>2023-09-01T19:56:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/sd-correction-conceptmaps/StructureDefinition-eclaire-contact-type.xlsx
+++ b/ig/sd-correction-conceptmaps/StructureDefinition-eclaire-contact-type.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-01T19:56:54+00:00</t>
+    <t>2023-09-01T20:06:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/sd-correction-conceptmaps/StructureDefinition-eclaire-contact-type.xlsx
+++ b/ig/sd-correction-conceptmaps/StructureDefinition-eclaire-contact-type.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-01T20:06:11+00:00</t>
+    <t>2023-09-01T20:29:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/sd-correction-conceptmaps/StructureDefinition-eclaire-contact-type.xlsx
+++ b/ig/sd-correction-conceptmaps/StructureDefinition-eclaire-contact-type.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-01T20:29:55+00:00</t>
+    <t>2023-09-01T20:45:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/sd-correction-conceptmaps/StructureDefinition-eclaire-contact-type.xlsx
+++ b/ig/sd-correction-conceptmaps/StructureDefinition-eclaire-contact-type.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-01T20:45:21+00:00</t>
+    <t>2023-09-04T08:26:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/sd-correction-conceptmaps/StructureDefinition-eclaire-contact-type.xlsx
+++ b/ig/sd-correction-conceptmaps/StructureDefinition-eclaire-contact-type.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-04T08:26:45+00:00</t>
+    <t>2023-09-04T08:52:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/sd-correction-conceptmaps/StructureDefinition-eclaire-contact-type.xlsx
+++ b/ig/sd-correction-conceptmaps/StructureDefinition-eclaire-contact-type.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-04T08:52:21+00:00</t>
+    <t>2023-09-04T09:00:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/sd-correction-conceptmaps/StructureDefinition-eclaire-contact-type.xlsx
+++ b/ig/sd-correction-conceptmaps/StructureDefinition-eclaire-contact-type.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-04T09:00:04+00:00</t>
+    <t>2023-09-04T09:07:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/sd-correction-conceptmaps/StructureDefinition-eclaire-contact-type.xlsx
+++ b/ig/sd-correction-conceptmaps/StructureDefinition-eclaire-contact-type.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-04T09:07:49+00:00</t>
+    <t>2023-09-04T10:01:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
